--- a/spliced/walkingToRunning/2023-03-27_19-45-19/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-45-19/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.821685791015625</v>
+        <v>-1.012200951576233</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.86567759513855</v>
+        <v>-1.622797250747681</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.412291288375854</v>
+        <v>-0.285490870475769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.818390846252441</v>
+        <v>0.4157860279083252</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.551957130432129</v>
+        <v>2.06141996383667</v>
       </c>
       <c r="C3" t="n">
-        <v>1.996838212013245</v>
+        <v>-0.3307646214962005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-11.81717872619629</v>
+        <v>1.623263239860535</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3255714476108551</v>
+        <v>1.307212591171265</v>
       </c>
       <c r="C4" t="n">
-        <v>2.053297281265259</v>
+        <v>-1.966478228569031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.982824087142944</v>
+        <v>2.821685791015625</v>
       </c>
       <c r="B5" t="n">
-        <v>3.520299434661865</v>
+        <v>-1.86567759513855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3776362538337707</v>
+        <v>-2.412291288375854</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.116231441497803</v>
+        <v>-4.818390846252441</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.721651554107666</v>
+        <v>-1.551957130432129</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.17768383026123</v>
+        <v>1.996838212013245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.484880924224853</v>
+        <v>-11.81717872619629</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8297078609466553</v>
+        <v>0.3255714476108551</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.670583963394165</v>
+        <v>2.053297281265259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.65365743637085</v>
+        <v>3.982824087142944</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.982856631278992</v>
+        <v>3.520299434661865</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.656236886978149</v>
+        <v>0.3776362538337707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-7.848002910614014</v>
+        <v>3.116231441497803</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.444648742675781</v>
+        <v>-4.721651554107666</v>
       </c>
       <c r="C9" t="n">
-        <v>1.645833611488343</v>
+        <v>-3.17768383026123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.379003524780273</v>
+        <v>7.484880924224853</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.322710037231445</v>
+        <v>-0.8297078609466553</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.161240100860596</v>
+        <v>-0.670583963394165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.561911344528198</v>
+        <v>3.65365743637085</v>
       </c>
       <c r="B11" t="n">
-        <v>12.11432075500488</v>
+        <v>-1.982856631278992</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.585113525390625</v>
+        <v>-2.656236886978149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.411060333251953</v>
+        <v>-7.848002910614014</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.473410844802856</v>
+        <v>-2.444648742675781</v>
       </c>
       <c r="C12" t="n">
-        <v>1.188835144042969</v>
+        <v>1.645833611488343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.543187141418457</v>
+        <v>-6.379003524780273</v>
       </c>
       <c r="B13" t="n">
-        <v>8.317185401916504</v>
+        <v>-4.322710037231445</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.709250926971436</v>
+        <v>-7.161240100860596</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.646316528320312</v>
+        <v>-3.561911344528198</v>
       </c>
       <c r="B14" t="n">
-        <v>3.249722480773926</v>
+        <v>12.11432075500488</v>
       </c>
       <c r="C14" t="n">
-        <v>3.988882780075073</v>
+        <v>-1.585113525390625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-9.768141746520996</v>
+        <v>4.411060333251953</v>
       </c>
       <c r="B15" t="n">
-        <v>1.953295588493347</v>
+        <v>-2.473410844802856</v>
       </c>
       <c r="C15" t="n">
-        <v>5.911684989929199</v>
+        <v>1.188835144042969</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.631037712097168</v>
+        <v>6.543187141418457</v>
       </c>
       <c r="B16" t="n">
-        <v>4.573313236236572</v>
+        <v>8.317185401916504</v>
       </c>
       <c r="C16" t="n">
-        <v>-8.092281341552734</v>
+        <v>-3.709250926971436</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.495431542396545</v>
+        <v>-2.646316528320312</v>
       </c>
       <c r="B17" t="n">
-        <v>-11.52443027496338</v>
+        <v>3.249722480773926</v>
       </c>
       <c r="C17" t="n">
-        <v>2.275937557220459</v>
+        <v>3.988882780075073</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.602558612823486</v>
+        <v>-9.768141746520996</v>
       </c>
       <c r="B18" t="n">
-        <v>4.312323570251465</v>
+        <v>1.953295588493347</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.322310447692871</v>
+        <v>5.911684989929199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.974667429924011</v>
+        <v>4.631037712097168</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5151885151863098</v>
+        <v>4.573313236236572</v>
       </c>
       <c r="C19" t="n">
-        <v>2.722815990447998</v>
+        <v>-8.092281341552734</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.4282546043396</v>
+        <v>1.495431542396545</v>
       </c>
       <c r="B20" t="n">
-        <v>3.407381534576416</v>
+        <v>-11.52443027496338</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7009440064430237</v>
+        <v>2.275937557220459</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>5.602558612823486</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.312323570251465</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.322310447692871</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.974667429924011</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5151885151863098</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.722815990447998</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-5.4282546043396</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.407381534576416</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7009440064430237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>-3.426622867584229</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>-0.3625893890857696</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-0.9486179947853088</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.35325288772583</v>
+      </c>
+      <c r="B25" t="n">
+        <v>15.64194393157959</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-7.271495342254639</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7.133343696594238</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-10.52308177947998</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.896986722946167</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.8908939957618713</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.6539392471313477</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.433596611022949</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-1.749364018440247</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.2597913742065429</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.243696212768555</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-14.04837512969971</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.555951952934265</v>
+      </c>
+      <c r="C29" t="n">
+        <v>13.38611316680908</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8.504871368408203</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-7.031145095825195</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2657834887504577</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.329284429550171</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-2.393516063690185</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.149171113967896</v>
       </c>
     </row>
   </sheetData>
